--- a/biology/Médecine/CD84/CD84.xlsx
+++ b/biology/Médecine/CD84/CD84.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CD84 (Cluster de Différenciation 84) est une protéine présente chez l'homme et codée par le gène CD84 situé sur le chromosome 1 humain[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD84 (Cluster de Différenciation 84) est une protéine présente chez l'homme et codée par le gène CD84 situé sur le chromosome 1 humain.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>La fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Membre de la superfamille des Immunoglobulines et du sous-groupe du CD2. Comme CD84, il y a des similarités, elle a conservé des ponts disulfures ainsi que la fonction de l'adhérence des interactions entre les lymphocytes T et les cellules accessoires[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Membre de la superfamille des Immunoglobulines et du sous-groupe du CD2. Comme CD84, il y a des similarités, elle a conservé des ponts disulfures ainsi que la fonction de l'adhérence des interactions entre les lymphocytes T et les cellules accessoires.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Interactions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été montré que CD84 peut interagir avec SH2D1A[6],[7],[8],[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été montré que CD84 peut interagir avec SH2D1A.
 </t>
         </is>
       </c>
